--- a/策略表现汇总.xlsx
+++ b/策略表现汇总.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27952" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="趋势型策略" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,13 @@
     <sheet name="情绪类策略" sheetId="3" r:id="rId3"/>
     <sheet name="外资类策略" sheetId="4" r:id="rId4"/>
     <sheet name="宏观类策略" sheetId="5" r:id="rId5"/>
+    <sheet name="趋势策略组合" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">趋势型策略!$A$1:$L$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sheet2!$A$1:$H$8</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t>策略名称</t>
   </si>
@@ -46,6 +52,27 @@
   </si>
   <si>
     <t>净值曲线</t>
+  </si>
+  <si>
+    <t>年化收益率</t>
+  </si>
+  <si>
+    <t>夏普比率均值</t>
+  </si>
+  <si>
+    <t>卡玛比率均值</t>
+  </si>
+  <si>
+    <t>年化收益率z_score</t>
+  </si>
+  <si>
+    <t>夏普比率均值_zscore</t>
+  </si>
+  <si>
+    <t>卡玛比率均值_zscore</t>
+  </si>
+  <si>
+    <t>总和</t>
   </si>
   <si>
     <t>UDVD</t>
@@ -80,22 +107,58 @@
 window_2=101</t>
   </si>
   <si>
+    <t>TRIX_1h</t>
+  </si>
+  <si>
+    <t>window_1=35
+window_2=40</t>
+  </si>
+  <si>
+    <t>ADTM_1h</t>
+  </si>
+  <si>
+    <t>window_1=94
+window_2=1</t>
+  </si>
+  <si>
+    <t>TII_1h</t>
+  </si>
+  <si>
+    <t>window_1=100
+window_2=120</t>
+  </si>
+  <si>
     <t>UD</t>
   </si>
   <si>
     <t>window_1=38
 window_2=65</t>
+  </si>
+  <si>
+    <t>趋势策略六组合</t>
+  </si>
+  <si>
+    <t>UDVD,SMA_H,V_MACD，
+ADTM_H,TII_H,Alligator</t>
+  </si>
+  <si>
+    <t>趋势策略5组合</t>
+  </si>
+  <si>
+    <t>UDVD,V_MACD，
+ADTM_H,TII_H,Alligator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -106,6 +169,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -560,19 +624,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,7 +645,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -705,13 +769,28 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -779,15 +858,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>767080</xdr:colOff>
+      <xdr:colOff>576580</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>42545</xdr:rowOff>
+      <xdr:rowOff>118110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2608580</xdr:colOff>
+      <xdr:colOff>2826385</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1929765</xdr:rowOff>
+      <xdr:rowOff>3235960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -804,8 +883,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6059170" y="218440"/>
-          <a:ext cx="1841500" cy="1887220"/>
+          <a:off x="6195695" y="299085"/>
+          <a:ext cx="2249805" cy="3117850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -821,15 +900,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>81915</xdr:colOff>
+      <xdr:colOff>135890</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>86360</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>4638675</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>12065</xdr:rowOff>
+      <xdr:colOff>5499100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3285490</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -846,8 +925,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8831580" y="262255"/>
-          <a:ext cx="4556760" cy="1957705"/>
+          <a:off x="9426575" y="310515"/>
+          <a:ext cx="5363210" cy="3155950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -863,19 +942,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>137795</xdr:rowOff>
+      <xdr:colOff>489585</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2655570</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>2212975</xdr:rowOff>
+      <xdr:colOff>2797175</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="6" name="图片 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -888,92 +967,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5949315" y="2345690"/>
-          <a:ext cx="1998345" cy="2075180"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>59690</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>2021205</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8787765" y="2267585"/>
-          <a:ext cx="4709160" cy="1961515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>74295</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2583815</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5892165" y="4555490"/>
-          <a:ext cx="1983740" cy="3124835"/>
+          <a:off x="6108700" y="8540750"/>
+          <a:ext cx="2307590" cy="3124200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -994,8 +989,8 @@
       <xdr:rowOff>148590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5168265</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>2908300</xdr:rowOff>
     </xdr:to>
@@ -1007,15 +1002,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8742045" y="4629785"/>
-          <a:ext cx="4805680" cy="2759710"/>
+          <a:off x="9069070" y="8609965"/>
+          <a:ext cx="5389880" cy="2759710"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1031,15 +1026,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>443865</xdr:colOff>
+      <xdr:colOff>396240</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:rowOff>118110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2756535</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:colOff>2708910</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3101340</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1049,14 +1044,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5735955" y="7853045"/>
+          <a:off x="6015355" y="11767185"/>
           <a:ext cx="2312670" cy="2983230"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1073,15 +1068,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>99695</xdr:colOff>
+      <xdr:colOff>30480</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>307975</xdr:rowOff>
+      <xdr:rowOff>207010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>97790</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5343525</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2981960</xdr:rowOff>
+      <xdr:rowOff>2880995</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1091,15 +1086,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8849360" y="7976870"/>
-          <a:ext cx="4739005" cy="2673985"/>
+          <a:off x="9321165" y="11856085"/>
+          <a:ext cx="5313045" cy="2673985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1115,19 +1110,103 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>572135</xdr:colOff>
+      <xdr:colOff>366395</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>192405</xdr:rowOff>
+      <xdr:rowOff>182245</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2972435</xdr:colOff>
+      <xdr:colOff>2880995</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>3141980</xdr:rowOff>
+      <xdr:rowOff>3245485</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5985510" y="14968220"/>
+          <a:ext cx="2514600" cy="3063240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>50165</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>61595</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5189855</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>3280410</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9340850" y="14847570"/>
+          <a:ext cx="5139690" cy="3218815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>42545</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5478145</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>4411980</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1140,8 +1219,50 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5864225" y="10998200"/>
-          <a:ext cx="2400300" cy="2949575"/>
+          <a:off x="9333230" y="23749000"/>
+          <a:ext cx="5435600" cy="4262755"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>201295</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>187960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5576570</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>4872355</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9491980" y="18606135"/>
+          <a:ext cx="5375275" cy="4684395"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1157,33 +1278,547 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3439795</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:colOff>309880</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>258445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>227965</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>3239770</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2881630</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>4744720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPr id="23" name="图片 22"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8731885" y="10916285"/>
-          <a:ext cx="4986655" cy="3129280"/>
+          <a:off x="5928995" y="18676620"/>
+          <a:ext cx="2571750" cy="4486275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>445135</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>202565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2965450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6064250" y="23802340"/>
+          <a:ext cx="2520315" cy="4471035"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3669030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5455920</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4032250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9290685" y="3850005"/>
+          <a:ext cx="5455920" cy="4033520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>399415</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>297180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3124835</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4184015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6018530" y="4148455"/>
+          <a:ext cx="2725420" cy="3886835"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>443865</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2755900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3163570</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714625" y="361950"/>
+          <a:ext cx="2312035" cy="2982595"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>448945</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>124460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2848610</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3073400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2719705" y="305435"/>
+          <a:ext cx="2399665" cy="2948940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>231775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3344545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="396875"/>
+          <a:ext cx="5493385" cy="3128645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>189865</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32575500" y="8718550"/>
+          <a:ext cx="2361565" cy="3264535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>305435</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3254375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="35718750" y="180975"/>
+          <a:ext cx="8249285" cy="7572375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>548005</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>80645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>155575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3088005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="44210605" y="261620"/>
+          <a:ext cx="6465570" cy="7325360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>62865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>404495</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32240220" y="12734290"/>
+          <a:ext cx="2911475" cy="3886835"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>365125</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>443230</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="35798125" y="12779375"/>
+          <a:ext cx="8307705" cy="3852545"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>601345</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>151765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>78105</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>104140</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="44263945" y="12642215"/>
+          <a:ext cx="6334760" cy="4114800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1456,23 +2091,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="26.4955752212389" style="1" customWidth="1"/>
-    <col min="2" max="3" width="23.6283185840708" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.1858407079646" style="1" customWidth="1"/>
-    <col min="5" max="5" width="66.070796460177" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="26.4916666666667" style="1" customWidth="1"/>
+    <col min="2" max="3" width="23.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.1833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="73.525" style="1" customWidth="1"/>
+    <col min="6" max="6" width="62.2" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.0833333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.2" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.675" style="1" customWidth="1"/>
+    <col min="10" max="11" width="19.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.85" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1488,63 +2129,285 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" ht="160" customHeight="1" spans="1:3">
+    <row r="2" ht="289" customHeight="1" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="6">
         <v>27</v>
       </c>
+      <c r="F2" s="2">
+        <v>0.1096</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.6381</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.3936</v>
+      </c>
+      <c r="I2" s="1">
+        <f>(F2-AVERAGE($F:$F))/STDEVA($F:$F)</f>
+        <v>0.61645765464824</v>
+      </c>
+      <c r="J2" s="1">
+        <f>(G2-AVERAGE($G:$G))/STDEVA($G:$G)</f>
+        <v>0.396457055274265</v>
+      </c>
+      <c r="K2" s="1">
+        <f>(H2-AVERAGE($H:$H))/STDEVA($H:$H)</f>
+        <v>1.13778378440485</v>
+      </c>
+      <c r="L2" s="1">
+        <f>SUM(I2:K2)</f>
+        <v>2.15069849432735</v>
+      </c>
     </row>
-    <row r="3" ht="179" customHeight="1" spans="1:3">
+    <row r="3" ht="363" customHeight="1" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.0617</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.498</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.2448</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I8" si="0">(F3-AVERAGE($F:$F))/STDEVA($F:$F)</f>
+        <v>-0.781096446795674</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J8" si="1">(G3-AVERAGE($G:$G))/STDEVA($G:$G)</f>
+        <v>-0.291207313504426</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K8" si="2">(H3-AVERAGE($H:$H))/STDEVA($H:$H)</f>
+        <v>-0.182532157925911</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L8" si="3">SUM(I3:K3)</f>
+        <v>-1.25483591822601</v>
       </c>
     </row>
-    <row r="4" ht="251" customHeight="1" spans="1:3">
+    <row r="4" ht="251" customHeight="1" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1">
         <v>42</v>
       </c>
+      <c r="F4" s="2">
+        <v>0.0998</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.6021</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.3201</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.330528005501051</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.219755290277599</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.485611595148726</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="3"/>
+        <v>1.03589489092738</v>
+      </c>
     </row>
-    <row r="5" ht="247" customHeight="1" spans="1:3">
+    <row r="5" ht="247" customHeight="1" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.0863</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.5205</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.2254</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.0633546744466072</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.18076871038151</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.354670123525486</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.598793508353603</v>
       </c>
     </row>
-    <row r="6" ht="263" customHeight="1" spans="1:3">
+    <row r="6" ht="286" customHeight="1" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.0809</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.5027</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.204</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.220907746425671</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.268137916407639</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.544554271145635</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.03359993397894</v>
+      </c>
+    </row>
+    <row r="7" ht="408" customHeight="1" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="2">
+        <v>0.093</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.602</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.2449</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.132127840786676</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.219264452041498</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.181644848824883</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.169747444003291</v>
+      </c>
+    </row>
+    <row r="8" ht="359" customHeight="1" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.088</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.5379</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.2248</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.0137546332680129</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.0953628572997875</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.359993978131658</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.469111468699459</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:L8" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -1553,14 +2416,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.85"/>
+  <sheetFormatPr defaultColWidth="9.025" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1569,30 +2432,67 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.85"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.025" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="4" width="39.375" customWidth="1"/>
+    <col min="5" max="5" width="88.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="264" customHeight="1" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.85"/>
+  <sheetFormatPr defaultColWidth="9.025" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1601,16 +2501,316 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="B3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.85"/>
+  <sheetFormatPr defaultColWidth="9.025" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="72" customWidth="1"/>
+    <col min="3" max="3" width="46" customWidth="1"/>
+    <col min="4" max="4" width="112.125" customWidth="1"/>
+    <col min="5" max="5" width="88.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="340" customHeight="1" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" ht="330" customHeight="1" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="26.4916666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="25.875" customWidth="1"/>
+    <col min="4" max="4" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="24.75" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="24.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.1096</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.6381</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.3936</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.61645765464824</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.396457055274265</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.13778378440485</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2.15069849432735</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.0998</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.6021</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.3201</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.330528005501051</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.219755290277599</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.485611595148726</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.03589489092738</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.093</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.602</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.2449</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.132127840786676</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.219264452041498</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-0.181644848824883</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.169747444003291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.088</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.5379</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.2248</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-0.0137546332680129</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-0.0953628572997875</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-0.359993978131658</v>
+      </c>
+      <c r="H5" s="1">
+        <v>-0.469111468699459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.0863</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.5205</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.2254</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-0.0633546744466072</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-0.18076871038151</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-0.354670123525486</v>
+      </c>
+      <c r="H6" s="1">
+        <v>-0.598793508353603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.0809</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.5027</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.204</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-0.220907746425671</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.268137916407639</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-0.544554271145635</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-1.03359993397894</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.0617</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.498</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.2448</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-0.781096446795674</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-0.291207313504426</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-0.182532157925911</v>
+      </c>
+      <c r="H8" s="1">
+        <v>-1.25483591822601</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:H8" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="A2:H8">
+      <sortCondition ref="H1" descending="1"/>
+    </sortState>
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>